--- a/DropshipEsty/etc/Configs/Info.xlsx
+++ b/DropshipEsty/etc/Configs/Info.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="45">
   <si>
     <t>Optional design</t>
   </si>
@@ -100,9 +100,6 @@
     <t>Surface</t>
   </si>
   <si>
-    <t>Customization</t>
-  </si>
-  <si>
     <t>Option</t>
   </si>
   <si>
@@ -110,6 +107,48 @@
   </si>
   <si>
     <t>Unisex Heavy Blend Hoodie</t>
+  </si>
+  <si>
+    <t>Customization-Option</t>
+  </si>
+  <si>
+    <t>Customization-Text</t>
+  </si>
+  <si>
+    <t>Font Label</t>
+  </si>
+  <si>
+    <t>Color Label</t>
+  </si>
+  <si>
+    <t>Color Instruction</t>
+  </si>
+  <si>
+    <t>Font Instruction</t>
+  </si>
+  <si>
+    <t>FontText</t>
+  </si>
+  <si>
+    <t>ColorText</t>
+  </si>
+  <si>
+    <t>Blue</t>
+  </si>
+  <si>
+    <t>#ff0000</t>
+  </si>
+  <si>
+    <t>#0000ff</t>
+  </si>
+  <si>
+    <t>Block Label</t>
+  </si>
+  <si>
+    <t>Block Instruction</t>
+  </si>
+  <si>
+    <t>TextBlock</t>
   </si>
 </sst>
 </file>
@@ -401,10 +440,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -448,7 +487,7 @@
         <v>3</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -456,7 +495,7 @@
         <v>4</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -467,7 +506,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -478,7 +517,7 @@
         <v>2</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -489,7 +528,7 @@
         <v>3</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -500,7 +539,7 @@
         <v>4</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -511,7 +550,7 @@
         <v>6</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -522,7 +561,7 @@
         <v>8</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -533,7 +572,7 @@
         <v>12</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -541,7 +580,7 @@
         <v>13</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -549,7 +588,7 @@
         <v>14</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -557,7 +596,7 @@
         <v>15</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -565,7 +604,7 @@
         <v>16</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -573,7 +612,7 @@
         <v>17</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -581,7 +620,7 @@
         <v>18</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -589,7 +628,7 @@
         <v>19</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -600,7 +639,7 @@
         <v>6</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -611,7 +650,7 @@
         <v>8</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -622,29 +661,90 @@
         <v>9</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B22" s="3">
         <v>13</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B23" s="3">
         <v>20</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="5"/>
+      <c r="D24" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/DropshipEsty/etc/Configs/Info.xlsx
+++ b/DropshipEsty/etc/Configs/Info.xlsx
@@ -443,7 +443,7 @@
   <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/DropshipEsty/etc/Configs/Info.xlsx
+++ b/DropshipEsty/etc/Configs/Info.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="47">
   <si>
     <t>Optional design</t>
   </si>
@@ -142,13 +142,19 @@
     <t>#0000ff</t>
   </si>
   <si>
-    <t>Block Label</t>
-  </si>
-  <si>
-    <t>Block Instruction</t>
-  </si>
-  <si>
     <t>TextBlock</t>
+  </si>
+  <si>
+    <t>Block Label 1</t>
+  </si>
+  <si>
+    <t>Block Label 2</t>
+  </si>
+  <si>
+    <t>Block Instruction 1</t>
+  </si>
+  <si>
+    <t>Block Instruction 2</t>
   </si>
 </sst>
 </file>
@@ -440,10 +446,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:D29"/>
+  <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -738,13 +744,24 @@
     </row>
     <row r="29" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D29" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C29" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="D29" s="3" t="s">
+    </row>
+    <row r="30" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="3" t="s">
         <v>44</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
